--- a/hasil/2023_01_lipa_22.xlsx
+++ b/hasil/2023_01_lipa_22.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>LAPORAN PENANGANAN BANTUAN PANGGILAN / PEMBERITAHUAN</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Tgl Disposisi</t>
   </si>
   <si>
-    <t>Tgl Relas</t>
+    <t>Tgl Relaas</t>
   </si>
   <si>
     <t>Tgl Pengembalian</t>
@@ -115,7 +115,7 @@
     <t>ASRIN</t>
   </si>
   <si>
-    <t>Panggilan Sidang</t>
+    <t>Panggilan</t>
   </si>
   <si>
     <t>6/Pdt.P/2023/PA.Tte</t>
@@ -134,6 +134,252 @@
   </si>
   <si>
     <t>B. Bantuan Panggilan Masuk</t>
+  </si>
+  <si>
+    <t>Nama Pihak</t>
+  </si>
+  <si>
+    <t>PA KAYUAGUNG</t>
+  </si>
+  <si>
+    <t>75/Pdt.G/2023/PA.Kag</t>
+  </si>
+  <si>
+    <t>Indrian Malta bin Iskandar</t>
+  </si>
+  <si>
+    <t>W6-A4/127/Hk.05/I/2023</t>
+  </si>
+  <si>
+    <t>04/01/2023</t>
+  </si>
+  <si>
+    <t>17/01/2023</t>
+  </si>
+  <si>
+    <t>05/01/2023</t>
+  </si>
+  <si>
+    <t>06/01/2023</t>
+  </si>
+  <si>
+    <t>PA CIBINONG</t>
+  </si>
+  <si>
+    <t>132/Pdt.G/2023/PA.Cbn</t>
+  </si>
+  <si>
+    <t>M. Gibran Alkatiri bin Halid Alkatiri, MA</t>
+  </si>
+  <si>
+    <t>W10-A20/70/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>09/01/2023</t>
+  </si>
+  <si>
+    <t>13/01/2023</t>
+  </si>
+  <si>
+    <t>Mohammad  Aries Ode, S.H</t>
+  </si>
+  <si>
+    <t>PA BATAM</t>
+  </si>
+  <si>
+    <t>21/Pdt.G/2023/PA.Btm</t>
+  </si>
+  <si>
+    <t>Samir Jahum bin Jahum Hi Saban</t>
+  </si>
+  <si>
+    <t>W32-A2/79/HK.05/1/2023</t>
+  </si>
+  <si>
+    <t>11/01/2023</t>
+  </si>
+  <si>
+    <t>PA PALOPO</t>
+  </si>
+  <si>
+    <t>6/Pdt.G/2023/PA.Plp</t>
+  </si>
+  <si>
+    <t>Muh. Fadhli Al Arkan bin H. Alimuddin Iras</t>
+  </si>
+  <si>
+    <t>W20-A10/83/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>10/01/2023</t>
+  </si>
+  <si>
+    <t>PA LABUHA</t>
+  </si>
+  <si>
+    <t>10/Pdt.G/2023/PA.Lbh</t>
+  </si>
+  <si>
+    <t>Asril Hi. Aman Bin Jufri Hi. Aman</t>
+  </si>
+  <si>
+    <t>W29-A3/06/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>HIDAYAH MADAUL</t>
+  </si>
+  <si>
+    <t>PA SENGKANG</t>
+  </si>
+  <si>
+    <t>1025/Pdt.G/2022/PA.Skg</t>
+  </si>
+  <si>
+    <t>Saharuddin bin Sammeng</t>
+  </si>
+  <si>
+    <t>W20-A3/118/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>10/11/2022</t>
+  </si>
+  <si>
+    <t>12/01/2023</t>
+  </si>
+  <si>
+    <t>19/01/2023</t>
+  </si>
+  <si>
+    <t>Pemberitahuan</t>
+  </si>
+  <si>
+    <t>PA JAYAPURA</t>
+  </si>
+  <si>
+    <t>16/Pdt.G/2023/PA.Jpr</t>
+  </si>
+  <si>
+    <t>Iswan Ahmad bin Ahmad Adam alias Iswan Ahmad Adam bin Ahmad Adam</t>
+  </si>
+  <si>
+    <t>W.25-A1/0110/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>11/Pdt.G/2023/PA.Lbh</t>
+  </si>
+  <si>
+    <t>Lukman Mansur bin Mansur</t>
+  </si>
+  <si>
+    <t>W29-A3/07/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>W10-A20/206/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>31/01/2023</t>
+  </si>
+  <si>
+    <t>18/01/2023</t>
+  </si>
+  <si>
+    <t>20/01/2023</t>
+  </si>
+  <si>
+    <t>W29-A3/08/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>PA MAKASSAR</t>
+  </si>
+  <si>
+    <t>33/Pdt.G/2023/PA.Mks</t>
+  </si>
+  <si>
+    <t>Darwis bin Wahab</t>
+  </si>
+  <si>
+    <t>W20-A1/371/Hk.05/I/2023</t>
+  </si>
+  <si>
+    <t>03/01/2023</t>
+  </si>
+  <si>
+    <t>W29-A3/09/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>W20-A10/113/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>25/01/2023</t>
+  </si>
+  <si>
+    <t>W32-A2/161/HK.05/1/2023</t>
+  </si>
+  <si>
+    <t>24/01/2023</t>
+  </si>
+  <si>
+    <t>Munira Juniarti, A.Md</t>
+  </si>
+  <si>
+    <t>W.25-A1/0158/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>23/01/2023</t>
+  </si>
+  <si>
+    <t>PA PURWOKERTO</t>
+  </si>
+  <si>
+    <t>1712/Pdt.G/2022/PA.Pwt</t>
+  </si>
+  <si>
+    <t>SURANTO bin ABDUL SAMAD HI.DJEN</t>
+  </si>
+  <si>
+    <t>WII-A22/499/Hk.05/I/2023</t>
+  </si>
+  <si>
+    <t>28/07/2022</t>
+  </si>
+  <si>
+    <t>PA SOASIO</t>
+  </si>
+  <si>
+    <t>9/Pdt.G/2023/PA.SS</t>
+  </si>
+  <si>
+    <t>Munira Hi. Abd. Muin binti Hi. Abd. Muin</t>
+  </si>
+  <si>
+    <t>W29-A2/  243  /HK.O5/I/2023</t>
+  </si>
+  <si>
+    <t>16/Pdt.G/2023/PA.SS</t>
+  </si>
+  <si>
+    <t>Nurmala Ishak binti Robo Ishak</t>
+  </si>
+  <si>
+    <t>W29-A2/277/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>W20-A10/162/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>PA DATARAN HUNIMOA</t>
+  </si>
+  <si>
+    <t>7/Pdt.G/2023/PA.Dth</t>
+  </si>
+  <si>
+    <t>Muhammad Ridha Duwila bin Syahrudin Duwila</t>
+  </si>
+  <si>
+    <t>W24-A5/234/HK.05/I/2023</t>
+  </si>
+  <si>
+    <t>02/02/2023</t>
   </si>
   <si>
     <t>Mengetahui</t>
@@ -165,7 +411,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -203,15 +449,6 @@
       <name val="Arial Narrow"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
@@ -221,7 +458,7 @@
       <name val="Arial Narrow"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,13 +479,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF92d050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92d050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf4b084"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf4b084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -273,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -310,24 +571,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -338,19 +591,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="14" fillId="5" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="8" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="9" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="14" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
@@ -656,7 +925,7 @@
   <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15.75" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,21 +949,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -702,21 +971,21 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -724,21 +993,21 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -754,43 +1023,43 @@
       </c>
     </row>
     <row r="5" spans="1:18" customHeight="1" ht="36.75">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -835,85 +1104,85 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A7" s="14">
+    <row r="7" spans="1:18">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A8" s="14">
+    <row r="8" spans="1:18">
+      <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -948,7 +1217,9 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A11" s="7"/>
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -962,353 +1233,907 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+    <row r="12" spans="1:18" customHeight="1" ht="36.75">
+      <c r="A12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" customHeight="1" ht="20">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16" t="s">
+      <c r="A13" s="17">
+        <v>1</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <v>4</v>
+      </c>
+      <c r="E13" s="17">
+        <v>5</v>
+      </c>
+      <c r="F13" s="17">
+        <v>6</v>
+      </c>
+      <c r="G13" s="17">
+        <v>7</v>
+      </c>
+      <c r="H13" s="18">
+        <v>8</v>
+      </c>
+      <c r="I13" s="17">
+        <v>9</v>
+      </c>
+      <c r="J13" s="17">
+        <v>10</v>
+      </c>
+      <c r="K13" s="17">
+        <v>11</v>
+      </c>
+      <c r="L13" s="17">
+        <v>12</v>
+      </c>
+      <c r="M13" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" customHeight="1" ht="20">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" customHeight="1" ht="20">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16" t="s">
+      <c r="F14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" customHeight="1" ht="20">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="16" t="s">
+      <c r="G14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="16" t="s">
+      <c r="H14" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:18" customHeight="1" ht="15.75">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="I14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="12">
+        <v>5</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="12">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="12">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="12">
+        <v>8</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="12">
+        <v>9</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="12">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="12">
+        <v>11</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="12">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="12">
+        <v>13</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="12">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="12">
+        <v>15</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="12">
+        <v>16</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="12">
+        <v>17</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="12">
+        <v>18</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="12">
+        <v>19</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="12">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:18" customHeight="1" ht="15.75">
       <c r="A34" s="7"/>
@@ -1340,32 +2165,40 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:18" customHeight="1" ht="15.75">
+    <row r="36" spans="1:18" customHeight="1" ht="20">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="7"/>
+      <c r="C36" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:18" customHeight="1" ht="15.75">
+    <row r="37" spans="1:18" customHeight="1" ht="20">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="C37" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -1373,14 +2206,14 @@
     <row r="38" spans="1:18" customHeight="1" ht="15.75">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -1388,14 +2221,14 @@
     <row r="39" spans="1:18" customHeight="1" ht="15.75">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="7"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="20"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -1403,14 +2236,14 @@
     <row r="40" spans="1:18" customHeight="1" ht="15.75">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -1418,44 +2251,52 @@
     <row r="41" spans="1:18" customHeight="1" ht="15.75">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:18" customHeight="1" ht="15.75">
+    <row r="42" spans="1:18" customHeight="1" ht="20">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="C42" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:18" customHeight="1" ht="15.75">
+    <row r="43" spans="1:18" customHeight="1" ht="20">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="C43" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -1613,7 +2454,7 @@
     <row r="54" spans="1:18" customHeight="1" ht="15.75">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="11"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>

--- a/hasil/2023_01_lipa_22.xlsx
+++ b/hasil/2023_01_lipa_22.xlsx
@@ -385,7 +385,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 07 Juli 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -4919,8 +4919,8 @@
     <mergeCell ref="A3:M3"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="2.43" right="0.4" top="0.59055118110236" bottom="0.19685039370079" header="0" footer="0"/>
-  <pageSetup paperSize="5" orientation="landscape" scale="70" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.98425196850394" right="0.39370078740157" top="0.59055118110236" bottom="0.19685039370079" header="0" footer="0"/>
+  <pageSetup paperSize="5" orientation="landscape" scale="79" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_22.xlsx
+++ b/hasil/2023_01_lipa_22.xlsx
@@ -385,7 +385,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_22.xlsx
+++ b/hasil/2023_01_lipa_22.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>LAPORAN PENANGANAN BANTUAN PANGGILAN / PEMBERITAHUAN</t>
   </si>
@@ -151,16 +151,16 @@
     <t>W6-A4/127/Hk.05/I/2023</t>
   </si>
   <si>
-    <t>04/01/2023</t>
-  </si>
-  <si>
-    <t>17/01/2023</t>
-  </si>
-  <si>
-    <t>05/01/2023</t>
-  </si>
-  <si>
-    <t>06/01/2023</t>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
   </si>
   <si>
     <t>PA CIBINONG</t>
@@ -175,10 +175,10 @@
     <t>W10-A20/70/HK.05/I/2023</t>
   </si>
   <si>
-    <t>09/01/2023</t>
-  </si>
-  <si>
-    <t>13/01/2023</t>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
   </si>
   <si>
     <t>Mohammad  Aries Ode, S.H</t>
@@ -196,7 +196,7 @@
     <t>W32-A2/79/HK.05/1/2023</t>
   </si>
   <si>
-    <t>11/01/2023</t>
+    <t>2023-01-11</t>
   </si>
   <si>
     <t>PA PALOPO</t>
@@ -211,7 +211,7 @@
     <t>W20-A10/83/HK.05/I/2023</t>
   </si>
   <si>
-    <t>10/01/2023</t>
+    <t>2023-01-10</t>
   </si>
   <si>
     <t>PA LABUHA</t>
@@ -241,13 +241,16 @@
     <t>W20-A3/118/HK.05/I/2023</t>
   </si>
   <si>
-    <t>10/11/2022</t>
-  </si>
-  <si>
-    <t>12/01/2023</t>
-  </si>
-  <si>
-    <t>19/01/2023</t>
+    <t>2022-11-10</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
   </si>
   <si>
     <t>Pemberitahuan</t>
@@ -277,13 +280,13 @@
     <t>W10-A20/206/HK.05/I/2023</t>
   </si>
   <si>
-    <t>31/01/2023</t>
-  </si>
-  <si>
-    <t>18/01/2023</t>
-  </si>
-  <si>
-    <t>20/01/2023</t>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
   </si>
   <si>
     <t>W29-A3/08/HK.05/I/2023</t>
@@ -301,7 +304,7 @@
     <t>W20-A1/371/Hk.05/I/2023</t>
   </si>
   <si>
-    <t>03/01/2023</t>
+    <t>2023-01-03</t>
   </si>
   <si>
     <t>W29-A3/09/HK.05/I/2023</t>
@@ -310,13 +313,13 @@
     <t>W20-A10/113/HK.05/I/2023</t>
   </si>
   <si>
-    <t>25/01/2023</t>
+    <t>2023-01-25</t>
   </si>
   <si>
     <t>W32-A2/161/HK.05/1/2023</t>
   </si>
   <si>
-    <t>24/01/2023</t>
+    <t>2023-01-24</t>
   </si>
   <si>
     <t>Munira Juniarti, A.Md</t>
@@ -325,7 +328,7 @@
     <t>W.25-A1/0158/HK.05/I/2023</t>
   </si>
   <si>
-    <t>23/01/2023</t>
+    <t>2023-01-23</t>
   </si>
   <si>
     <t>PA PURWOKERTO</t>
@@ -340,7 +343,7 @@
     <t>WII-A22/499/Hk.05/I/2023</t>
   </si>
   <si>
-    <t>28/07/2022</t>
+    <t>2022-07-28</t>
   </si>
   <si>
     <t>PA SOASIO</t>
@@ -364,9 +367,21 @@
     <t>W29-A2/277/HK.05/I/2023</t>
   </si>
   <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
     <t>W20-A10/162/HK.05/I/2023</t>
   </si>
   <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
     <t>PA DATARAN HUNIMOA</t>
   </si>
   <si>
@@ -379,13 +394,13 @@
     <t>W24-A5/234/HK.05/I/2023</t>
   </si>
   <si>
-    <t>02/02/2023</t>
+    <t>2023-02-02</t>
   </si>
   <si>
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 11 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -1549,16 +1564,16 @@
         <v>75</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>54</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1566,16 +1581,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>64</v>
@@ -1610,13 +1625,13 @@
         <v>65</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>59</v>
@@ -1657,25 +1672,25 @@
         <v>50</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>54</v>
@@ -1692,13 +1707,13 @@
         <v>65</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>45</v>
@@ -1707,22 +1722,22 @@
         <v>64</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>54</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1730,40 +1745,40 @@
         <v>11</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>54</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1780,31 +1795,31 @@
         <v>67</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>64</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>69</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1821,25 +1836,25 @@
         <v>62</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>54</v>
@@ -1862,28 +1877,28 @@
         <v>57</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F27" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="H27" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>32</v>
@@ -1894,40 +1909,40 @@
         <v>15</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>31</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1935,40 +1950,40 @@
         <v>16</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="J29" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L29" s="12" t="s">
         <v>54</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1976,34 +1991,34 @@
         <v>17</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>31</v>
@@ -2017,37 +2032,37 @@
         <v>18</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>32</v>
@@ -2067,31 +2082,31 @@
         <v>62</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>52</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>54</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2099,37 +2114,37 @@
         <v>20</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="12" t="s">
+      <c r="G33" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="I33" s="13" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>32</v>
@@ -2169,7 +2184,7 @@
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
@@ -2178,7 +2193,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2188,7 +2203,7 @@
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
@@ -2197,7 +2212,7 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -2267,7 +2282,7 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
@@ -2276,7 +2291,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -2286,7 +2301,7 @@
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
@@ -2295,7 +2310,7 @@
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
